--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE2EEE2-E316-6241-BF00-0FD7C51B27C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D07A1-5C2F-BB4E-9CD4-A43125324398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="138">
   <si>
     <t>Publicação</t>
   </si>
@@ -277,9 +277,6 @@
     <t>2022</t>
   </si>
   <si>
-    <t>www.unisuam.edu.br</t>
-  </si>
-  <si>
     <t>2021-1 PPGCR Edital N° 06 MA PIC.pdf</t>
   </si>
   <si>
@@ -296,6 +293,162 @@
   </si>
   <si>
     <t>2019-1 Edital PPGCR DA Minter.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JBJN1f3PB62qpQhTdF0HC7IIBuSXNhFd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eY0FBooA7UQ-6p5PrebvMgOl6LwFtcqv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IqlRLE8AQwrVaw5cTb1UYFrW3gkZKG9W</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Idcp9ziByvBDuq5OSStz4rWEs-9xifEC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IrvFbpWDQkMb0NNb71wxkJsagOXIDNEw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eOAhFHC8JkiHsvgMHQzT6ZCMtBtaXUVI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JBlAmJzUq2r4aMVf1GwD8kyibm6qqsNC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eMHDcK2ts6Fp5P0C4KalkHdgDqCCL52C</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eKFmPn39jUhiGopWfpweuu8TfkfqZiOF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ibn5hSqs2uU1r-rMwxP29A7M4XDlMWsl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JEM0jE9dTyhiNzDr7PF75ZlNIfZDN_qt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JDMjuseVIvweQ802lt4x424j4oc_YWYd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eDcWFwm_IFv1PbQXa2lh18f_Ahs8KjxZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J4frCzjRnHjbkgP1Ag2Ev-ux40z9lY23</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eGNMHP3IeKGrUPEKSzHPtt9zlQRBUIcV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IZKlBAlQmEjuBGmZFj7736tvtRks4lz6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IuIJzuToBZOf4Hm_aAtOX_F9F7XxP3Pp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J1IxyuSTi9tErlC_eAlA0-ud4URUnGoK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Icu-XttshM4je6tenWlfG1HBDjZ_81hb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IxliZIccK-Od5xXUeOos8jV2G8tE23fU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ItLKDKrxjfrON6d-lKkC-MRWI_M7_sO9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1e8hQXDU-_8QQV3_9QxN2Kaq5sK0euEm_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dy2KkDYAlbs_Jk42UyRZcOsaDk0ZDhKp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1e6LnwHzCdQjI8ZWU-AH6zUFoX2jcnYB1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dvTXqWQ83P2ZbCgYFysGQVis08Rd2vss</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dpDMzdMr0z7v48RbXXLug3xp_95gx74K</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1doF8xYUFBigFxDtxc_olNS2fhuWwztr9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1di1kour2-PYoN-5IOHlpr3V3Wt0rMfF7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1djjoH2KUHLnuyKKNysxJgdSgd8Hn4jeu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dj_kVCQ-bM1WJTAfR_MYZ_02z1ATo5Wx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dfATe_ze8oS93Vl6mgGeKRrNZWOoq4Z7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dX5oht2j-tNZKrQu8YG7FRFBNvGhQ_Ek</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dYsltRe9sUongxwVJhq24mryPwUfcRs_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dBR8dYrbQ9RGCaxYISu6EpWabmvQpYwT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d81JVT9v3LuMEqL2Kg93rmka38xm4eho</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d05DbN8xYTo3Iq4l2LoVmSPIqGXd7pwj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cv1fa_qgEy220wbosGkcPbjEufEH2bYl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ceMEUZxBybA5STaVyUvo_W34Kha5m6gh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cuNhhZ6n4wkMrvOqOJY-_yEtOC9lJ3xQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cCtIk4YcdbgL81uW0ki4KJUOIHucskE7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cDq_wxAaMDcWhNbgfDkge_wxUUv0odBq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oL9D6jncxsx3VNTwIWlJhF523o_XZxkH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cb6vxVmmxOiSrbalSrLTynlwFnLc1U6B</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dkiif4-p6M0f8zXJDbCKXk0E-IqUujmm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cAr4-pYiv8t9pIoJJSMrJifFrQi8ZnJq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cUDYhdb72KGZwOydiRfMSgqrEdqRHCUn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cQwlTMxkLVazGlCposa83lkIKA6pULZt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cKYcHdDNrdQ3RIEsi6PaYo3NV46T84qx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1o5xogY2iTRxldz6sh7qzt2rK3f5GjDdO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mNIVbYEDf-prlsA4C6OAXCE41Cl0IBUJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UHxfVczrTrHTM3XuG8mkv3mfCNYTZWIT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UH-05ozUL9TZeutgzOdITs0yLeehBWB5</t>
   </si>
 </sst>
 </file>
@@ -334,18 +487,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -361,14 +508,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -702,7 +850,7 @@
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -713,8 +861,8 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>80</v>
+      <c r="C2" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -724,8 +872,8 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>80</v>
+      <c r="C3" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -735,8 +883,8 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>80</v>
+      <c r="C4" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -746,8 +894,8 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>80</v>
+      <c r="C5" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -757,8 +905,8 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>80</v>
+      <c r="C6" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -768,8 +916,8 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>80</v>
+      <c r="C7" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -779,8 +927,8 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>80</v>
+      <c r="C8" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -790,8 +938,8 @@
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>80</v>
+      <c r="C9" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -801,8 +949,8 @@
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>80</v>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -812,8 +960,8 @@
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>80</v>
+      <c r="C11" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -823,8 +971,8 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>80</v>
+      <c r="C12" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -834,8 +982,8 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>80</v>
+      <c r="C13" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -845,8 +993,8 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>80</v>
+      <c r="C14" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -856,8 +1004,8 @@
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>80</v>
+      <c r="C15" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -867,8 +1015,8 @@
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>80</v>
+      <c r="C16" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -878,8 +1026,8 @@
       <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>80</v>
+      <c r="C17" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -889,8 +1037,8 @@
       <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>80</v>
+      <c r="C18" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -900,8 +1048,8 @@
       <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>80</v>
+      <c r="C19" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -911,8 +1059,8 @@
       <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>80</v>
+      <c r="C20" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -922,8 +1070,8 @@
       <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>80</v>
+      <c r="C21" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -933,8 +1081,8 @@
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>80</v>
+      <c r="C22" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -944,8 +1092,8 @@
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>80</v>
+      <c r="C23" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -955,8 +1103,8 @@
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>80</v>
+      <c r="C24" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -966,8 +1114,8 @@
       <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>80</v>
+      <c r="C25" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -977,8 +1125,8 @@
       <c r="B26" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>80</v>
+      <c r="C26" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -988,8 +1136,8 @@
       <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>80</v>
+      <c r="C27" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -999,8 +1147,8 @@
       <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>80</v>
+      <c r="C28" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1010,8 +1158,8 @@
       <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>80</v>
+      <c r="C29" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1021,8 +1169,8 @@
       <c r="B30" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>80</v>
+      <c r="C30" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1032,8 +1180,8 @@
       <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>80</v>
+      <c r="C31" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1043,8 +1191,8 @@
       <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>80</v>
+      <c r="C32" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1054,8 +1202,8 @@
       <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>80</v>
+      <c r="C33" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1065,8 +1213,8 @@
       <c r="B34" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>80</v>
+      <c r="C34" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1076,8 +1224,8 @@
       <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>80</v>
+      <c r="C35" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1087,8 +1235,8 @@
       <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>80</v>
+      <c r="C36" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1098,8 +1246,8 @@
       <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>80</v>
+      <c r="C37" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1109,8 +1257,8 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>80</v>
+      <c r="C38" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1120,8 +1268,8 @@
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>80</v>
+      <c r="C39" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1131,8 +1279,8 @@
       <c r="B40" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>80</v>
+      <c r="C40" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1142,8 +1290,8 @@
       <c r="B41" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>80</v>
+      <c r="C41" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1153,8 +1301,8 @@
       <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>80</v>
+      <c r="C42" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1164,8 +1312,8 @@
       <c r="B43" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>80</v>
+      <c r="C43" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1175,8 +1323,8 @@
       <c r="B44" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>80</v>
+      <c r="C44" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1186,8 +1334,8 @@
       <c r="B45" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>80</v>
+      <c r="C45" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1197,8 +1345,8 @@
       <c r="B46" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>80</v>
+      <c r="C46" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1208,8 +1356,8 @@
       <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>80</v>
+      <c r="C47" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1219,8 +1367,8 @@
       <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>80</v>
+      <c r="C48" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1230,8 +1378,8 @@
       <c r="B49" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>80</v>
+      <c r="C49" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1241,8 +1389,8 @@
       <c r="B50" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>80</v>
+      <c r="C50" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1252,8 +1400,8 @@
       <c r="B51" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>80</v>
+      <c r="C51" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1263,8 +1411,8 @@
       <c r="B52" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>80</v>
+      <c r="C52" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,8 +1422,8 @@
       <c r="B53" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>80</v>
+      <c r="C53" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1284,8 +1432,58 @@
     <sortCondition ref="B6:B26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{7A8A7A55-7409-0349-B7E9-C66ABFB82867}"/>
-    <hyperlink ref="C3:C53" r:id="rId2" display="www.unisuam.edu.br" xr:uid="{FF0DCCBB-AE83-A843-9D61-3387B4DE9A29}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{15EC7099-9814-B44B-87DE-BAEDF3870D45}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8A0BE4B9-EBB4-1A46-A10A-48182AA5444B}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{E3D3EFB1-8690-4148-AF65-5466F95990C2}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{A1BB928C-D8CD-6D4B-9992-05FED996D03B}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{90B525A3-A65F-B646-BBC0-19DE22888F53}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{9D5F0318-F97C-C044-BDC9-4ADFB7A14F7C}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{892F1D45-C087-AA4F-B8F1-8A1CDA4D6878}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{54481569-682C-EF4A-97D8-1A9ACA0915DA}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{D46A0735-1D0E-7841-971A-72DEA9919708}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{3FC8274E-8869-1342-BD3A-C5A1CDF160EF}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{B0B319F2-9604-8049-8BDD-E4BFA5DA3F02}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{8268C58C-0C1E-8946-BA2B-9069609ADDDB}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{BBDE9D97-A909-0743-8747-0C0279FBEBFF}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{565ABB74-BBDD-F14F-8FDD-E868AC84E28A}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{61A9FD10-CB42-C341-AA64-825F012EB293}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{9D2440F0-DF12-ED45-9AFB-32962AD34037}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{D49F5424-7A7B-2247-9951-76ACB0136F2D}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{A8FFDBD7-DBC5-944B-A16D-4919AAD6D955}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{82EB7771-3D0D-BB4F-B616-38D59E228EBE}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{525553BD-07FE-7D4D-ADC7-E1E90255A3C6}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{31FE623B-C058-D041-B200-996CD8173B69}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{FBF4AAE4-5CA0-984C-9CA9-9E8EF2B2D378}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{05253A6E-0B3F-674D-AAE9-AAD8C9CC8C64}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{17E66689-5DB6-0048-AEE3-2BD8C6C2F2F1}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{3240F40D-0151-AB42-94B1-BF8BCA1BE400}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{118C77A3-F659-EB4A-9776-475878CD8478}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{F2599CE0-C17A-994C-83A1-CF34423960C5}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{A4E23E74-B996-3444-9FB8-EB6297C795E1}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{590C39CD-C461-CB48-A197-1CB6FDCA2FBB}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{3B831F84-346B-8741-9979-5561CCB897D3}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{98C5A3B5-C986-B140-9E17-9F974A22180B}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{0510B957-7D9C-3E47-800E-ACFCE938719D}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{65A4FECB-29A5-9A4E-BC9E-90CD94D26F59}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{AD1BBC09-83AC-1945-A154-35B6893348C7}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{9617D8AD-9582-014F-B6B3-16EE9CED92C9}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{49BB7D4C-D982-C74A-8A4C-80EDFD5F731D}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{5F0BA15F-60FE-3D48-A2E6-7C34C8803E08}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{608E6FBE-1DD9-AD42-BD76-9970BB6BFCF8}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{C74F7FB0-2365-794F-8C10-3789EEC77113}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{6146A27A-8B58-114F-8AF5-BA98FDCC5CA9}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{E5E25086-20A9-B04A-A3A1-886AE4B02664}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{901C03DF-774A-8145-945F-270A1659475B}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{C3D39028-C46E-4E43-8E40-EB2AE977EFE2}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{219EC97F-6C06-7841-B4F3-CBF4F8ED1675}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{8A5F4887-09E7-0242-BF18-5824AD0563E0}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{A61C5269-574D-8E4C-ABB3-AD5A4D41C4A4}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{70EEDB82-9B21-ED4E-A809-7AB2EB4F65D1}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{C14124A0-FD94-AA4C-B262-5F846D255DF1}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{2CF0C181-8C04-314D-BBFE-322E25F13E50}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{749A4B3E-220E-E340-8789-E6B2909AD9BC}"/>
+    <hyperlink ref="C52" r:id="rId51" xr:uid="{BD31894C-95D0-EB48-A305-AF40DE2AA016}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{BA216F60-F3A2-EB42-849C-2AEA0EDB7250}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1320,10 +1518,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1331,10 +1529,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="6" t="s">
         <v>83</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1342,10 +1540,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="6" t="s">
         <v>85</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D07A1-5C2F-BB4E-9CD4-A43125324398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D2D72-4614-2245-A19B-C994FDD5B6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
   <si>
     <t>Publicação</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1UH-05ozUL9TZeutgzOdITs0yLeehBWB5</t>
+  </si>
+  <si>
+    <t>2023 UNISUAM IC.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ifF0EPwBrb6VgMZaysDsM2ecqki7-dL9</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -516,7 +522,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -832,9 +837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -850,7 +857,7 @@
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1424,6 +1431,17 @@
       </c>
       <c r="C53" s="6" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1484,6 +1502,7 @@
     <hyperlink ref="C51" r:id="rId50" xr:uid="{749A4B3E-220E-E340-8789-E6B2909AD9BC}"/>
     <hyperlink ref="C52" r:id="rId51" xr:uid="{BD31894C-95D0-EB48-A305-AF40DE2AA016}"/>
     <hyperlink ref="C53" r:id="rId52" xr:uid="{BA216F60-F3A2-EB42-849C-2AEA0EDB7250}"/>
+    <hyperlink ref="C54" r:id="rId53" xr:uid="{10106E17-D749-8341-A357-71EB491BC85D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D2D72-4614-2245-A19B-C994FDD5B6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093F2630-A2C3-E74C-BBED-7881FBADBB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
     <sheet name="Cooperação Interinstitucional" sheetId="10" r:id="rId2"/>
+    <sheet name="Empresas" sheetId="12" r:id="rId3"/>
+    <sheet name="Internacionais" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="142">
   <si>
     <t>Publicação</t>
   </si>
@@ -232,9 +234,6 @@
     <t>2021-2 PPGCR Edital N° 07.pdf</t>
   </si>
   <si>
-    <t>2021-2 PPGCR Edital N° 011.pdf</t>
-  </si>
-  <si>
     <t>2022 UNISUAM IC.pdf</t>
   </si>
   <si>
@@ -455,6 +454,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1ifF0EPwBrb6VgMZaysDsM2ecqki7-dL9</t>
+  </si>
+  <si>
+    <t>2022-2 PPGCR Edital N° 02.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1p4eC2adM0WyN7KmMWC2xUvxGQJ8neCR1</t>
+  </si>
+  <si>
+    <t>2021-2 PPGCR Edital N° 11.pdf</t>
   </si>
 </sst>
 </file>
@@ -837,11 +845,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -863,156 +869,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1020,32 +1026,32 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1053,32 +1059,32 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1086,43 +1092,43 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>6</v>
+      <c r="A25" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,10 +1136,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1141,32 +1147,32 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1174,10 +1180,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1185,10 +1191,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1196,21 +1202,21 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1218,10 +1224,10 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1229,32 +1235,32 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1262,21 +1268,21 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1284,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1298,7 +1304,7 @@
         <v>62</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1309,7 +1315,7 @@
         <v>63</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1317,7 +1323,7 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>127</v>
@@ -1328,15 +1334,15 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
         <v>66</v>
@@ -1350,10 +1356,10 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1361,37 +1367,37 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
@@ -1405,104 +1411,68 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C26">
-    <sortCondition descending="1" ref="A6:A26"/>
-    <sortCondition ref="B6:B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
+    <sortCondition ref="A2:A51"/>
+    <sortCondition ref="B2:B51"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{15EC7099-9814-B44B-87DE-BAEDF3870D45}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{8A0BE4B9-EBB4-1A46-A10A-48182AA5444B}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{E3D3EFB1-8690-4148-AF65-5466F95990C2}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{A1BB928C-D8CD-6D4B-9992-05FED996D03B}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{90B525A3-A65F-B646-BBC0-19DE22888F53}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{9D5F0318-F97C-C044-BDC9-4ADFB7A14F7C}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{892F1D45-C087-AA4F-B8F1-8A1CDA4D6878}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{54481569-682C-EF4A-97D8-1A9ACA0915DA}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{D46A0735-1D0E-7841-971A-72DEA9919708}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{3FC8274E-8869-1342-BD3A-C5A1CDF160EF}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{B0B319F2-9604-8049-8BDD-E4BFA5DA3F02}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{8268C58C-0C1E-8946-BA2B-9069609ADDDB}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{BBDE9D97-A909-0743-8747-0C0279FBEBFF}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{565ABB74-BBDD-F14F-8FDD-E868AC84E28A}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{61A9FD10-CB42-C341-AA64-825F012EB293}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{9D2440F0-DF12-ED45-9AFB-32962AD34037}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{D49F5424-7A7B-2247-9951-76ACB0136F2D}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{A8FFDBD7-DBC5-944B-A16D-4919AAD6D955}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{82EB7771-3D0D-BB4F-B616-38D59E228EBE}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{525553BD-07FE-7D4D-ADC7-E1E90255A3C6}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{31FE623B-C058-D041-B200-996CD8173B69}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{FBF4AAE4-5CA0-984C-9CA9-9E8EF2B2D378}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{05253A6E-0B3F-674D-AAE9-AAD8C9CC8C64}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{17E66689-5DB6-0048-AEE3-2BD8C6C2F2F1}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{3240F40D-0151-AB42-94B1-BF8BCA1BE400}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{118C77A3-F659-EB4A-9776-475878CD8478}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{F2599CE0-C17A-994C-83A1-CF34423960C5}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{A4E23E74-B996-3444-9FB8-EB6297C795E1}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{590C39CD-C461-CB48-A197-1CB6FDCA2FBB}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{3B831F84-346B-8741-9979-5561CCB897D3}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{98C5A3B5-C986-B140-9E17-9F974A22180B}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{0510B957-7D9C-3E47-800E-ACFCE938719D}"/>
-    <hyperlink ref="C34" r:id="rId33" xr:uid="{65A4FECB-29A5-9A4E-BC9E-90CD94D26F59}"/>
-    <hyperlink ref="C35" r:id="rId34" xr:uid="{AD1BBC09-83AC-1945-A154-35B6893348C7}"/>
-    <hyperlink ref="C36" r:id="rId35" xr:uid="{9617D8AD-9582-014F-B6B3-16EE9CED92C9}"/>
-    <hyperlink ref="C37" r:id="rId36" xr:uid="{49BB7D4C-D982-C74A-8A4C-80EDFD5F731D}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{5F0BA15F-60FE-3D48-A2E6-7C34C8803E08}"/>
-    <hyperlink ref="C39" r:id="rId38" xr:uid="{608E6FBE-1DD9-AD42-BD76-9970BB6BFCF8}"/>
-    <hyperlink ref="C40" r:id="rId39" xr:uid="{C74F7FB0-2365-794F-8C10-3789EEC77113}"/>
-    <hyperlink ref="C41" r:id="rId40" xr:uid="{6146A27A-8B58-114F-8AF5-BA98FDCC5CA9}"/>
-    <hyperlink ref="C42" r:id="rId41" xr:uid="{E5E25086-20A9-B04A-A3A1-886AE4B02664}"/>
-    <hyperlink ref="C43" r:id="rId42" xr:uid="{901C03DF-774A-8145-945F-270A1659475B}"/>
-    <hyperlink ref="C44" r:id="rId43" xr:uid="{C3D39028-C46E-4E43-8E40-EB2AE977EFE2}"/>
-    <hyperlink ref="C45" r:id="rId44" xr:uid="{219EC97F-6C06-7841-B4F3-CBF4F8ED1675}"/>
-    <hyperlink ref="C46" r:id="rId45" xr:uid="{8A5F4887-09E7-0242-BF18-5824AD0563E0}"/>
-    <hyperlink ref="C47" r:id="rId46" xr:uid="{A61C5269-574D-8E4C-ABB3-AD5A4D41C4A4}"/>
-    <hyperlink ref="C48" r:id="rId47" xr:uid="{70EEDB82-9B21-ED4E-A809-7AB2EB4F65D1}"/>
-    <hyperlink ref="C49" r:id="rId48" xr:uid="{C14124A0-FD94-AA4C-B262-5F846D255DF1}"/>
-    <hyperlink ref="C50" r:id="rId49" xr:uid="{2CF0C181-8C04-314D-BBFE-322E25F13E50}"/>
-    <hyperlink ref="C51" r:id="rId50" xr:uid="{749A4B3E-220E-E340-8789-E6B2909AD9BC}"/>
-    <hyperlink ref="C52" r:id="rId51" xr:uid="{BD31894C-95D0-EB48-A305-AF40DE2AA016}"/>
-    <hyperlink ref="C53" r:id="rId52" xr:uid="{BA216F60-F3A2-EB42-849C-2AEA0EDB7250}"/>
-    <hyperlink ref="C54" r:id="rId53" xr:uid="{10106E17-D749-8341-A357-71EB491BC85D}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{15EC7099-9814-B44B-87DE-BAEDF3870D45}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{8A0BE4B9-EBB4-1A46-A10A-48182AA5444B}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{E3D3EFB1-8690-4148-AF65-5466F95990C2}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{A1BB928C-D8CD-6D4B-9992-05FED996D03B}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{90B525A3-A65F-B646-BBC0-19DE22888F53}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{9D5F0318-F97C-C044-BDC9-4ADFB7A14F7C}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{892F1D45-C087-AA4F-B8F1-8A1CDA4D6878}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{54481569-682C-EF4A-97D8-1A9ACA0915DA}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{D46A0735-1D0E-7841-971A-72DEA9919708}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{3FC8274E-8869-1342-BD3A-C5A1CDF160EF}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{B0B319F2-9604-8049-8BDD-E4BFA5DA3F02}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{8268C58C-0C1E-8946-BA2B-9069609ADDDB}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{BBDE9D97-A909-0743-8747-0C0279FBEBFF}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{565ABB74-BBDD-F14F-8FDD-E868AC84E28A}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{61A9FD10-CB42-C341-AA64-825F012EB293}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{9D2440F0-DF12-ED45-9AFB-32962AD34037}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{D49F5424-7A7B-2247-9951-76ACB0136F2D}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{A8FFDBD7-DBC5-944B-A16D-4919AAD6D955}"/>
+    <hyperlink ref="C22" r:id="rId19" xr:uid="{82EB7771-3D0D-BB4F-B616-38D59E228EBE}"/>
+    <hyperlink ref="C23" r:id="rId20" xr:uid="{525553BD-07FE-7D4D-ADC7-E1E90255A3C6}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{31FE623B-C058-D041-B200-996CD8173B69}"/>
+    <hyperlink ref="C25" r:id="rId22" xr:uid="{FBF4AAE4-5CA0-984C-9CA9-9E8EF2B2D378}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{05253A6E-0B3F-674D-AAE9-AAD8C9CC8C64}"/>
+    <hyperlink ref="C27" r:id="rId24" xr:uid="{17E66689-5DB6-0048-AEE3-2BD8C6C2F2F1}"/>
+    <hyperlink ref="C28" r:id="rId25" xr:uid="{3240F40D-0151-AB42-94B1-BF8BCA1BE400}"/>
+    <hyperlink ref="C29" r:id="rId26" xr:uid="{118C77A3-F659-EB4A-9776-475878CD8478}"/>
+    <hyperlink ref="C2" r:id="rId27" xr:uid="{F2599CE0-C17A-994C-83A1-CF34423960C5}"/>
+    <hyperlink ref="C30" r:id="rId28" xr:uid="{A4E23E74-B996-3444-9FB8-EB6297C795E1}"/>
+    <hyperlink ref="C31" r:id="rId29" xr:uid="{590C39CD-C461-CB48-A197-1CB6FDCA2FBB}"/>
+    <hyperlink ref="C32" r:id="rId30" xr:uid="{3B831F84-346B-8741-9979-5561CCB897D3}"/>
+    <hyperlink ref="C33" r:id="rId31" xr:uid="{98C5A3B5-C986-B140-9E17-9F974A22180B}"/>
+    <hyperlink ref="C34" r:id="rId32" xr:uid="{0510B957-7D9C-3E47-800E-ACFCE938719D}"/>
+    <hyperlink ref="C35" r:id="rId33" xr:uid="{65A4FECB-29A5-9A4E-BC9E-90CD94D26F59}"/>
+    <hyperlink ref="C36" r:id="rId34" xr:uid="{AD1BBC09-83AC-1945-A154-35B6893348C7}"/>
+    <hyperlink ref="C37" r:id="rId35" xr:uid="{9617D8AD-9582-014F-B6B3-16EE9CED92C9}"/>
+    <hyperlink ref="C38" r:id="rId36" xr:uid="{49BB7D4C-D982-C74A-8A4C-80EDFD5F731D}"/>
+    <hyperlink ref="C39" r:id="rId37" xr:uid="{5F0BA15F-60FE-3D48-A2E6-7C34C8803E08}"/>
+    <hyperlink ref="C40" r:id="rId38" xr:uid="{608E6FBE-1DD9-AD42-BD76-9970BB6BFCF8}"/>
+    <hyperlink ref="C41" r:id="rId39" xr:uid="{6146A27A-8B58-114F-8AF5-BA98FDCC5CA9}"/>
+    <hyperlink ref="C42" r:id="rId40" xr:uid="{E5E25086-20A9-B04A-A3A1-886AE4B02664}"/>
+    <hyperlink ref="C44" r:id="rId41" xr:uid="{901C03DF-774A-8145-945F-270A1659475B}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{C3D39028-C46E-4E43-8E40-EB2AE977EFE2}"/>
+    <hyperlink ref="C3" r:id="rId43" xr:uid="{219EC97F-6C06-7841-B4F3-CBF4F8ED1675}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{8A5F4887-09E7-0242-BF18-5824AD0563E0}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{70EEDB82-9B21-ED4E-A809-7AB2EB4F65D1}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{C14124A0-FD94-AA4C-B262-5F846D255DF1}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{2CF0C181-8C04-314D-BBFE-322E25F13E50}"/>
+    <hyperlink ref="C50" r:id="rId48" xr:uid="{749A4B3E-220E-E340-8789-E6B2909AD9BC}"/>
+    <hyperlink ref="C51" r:id="rId49" xr:uid="{BA216F60-F3A2-EB42-849C-2AEA0EDB7250}"/>
+    <hyperlink ref="C49" r:id="rId50" xr:uid="{10106E17-D749-8341-A357-71EB491BC85D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1537,10 +1507,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1548,10 +1518,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1559,10 +1529,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1573,4 +1543,114 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E1AFCF-A325-2F4F-9D5D-77CE2F7BED41}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3C0D04CF-448B-A042-BE89-32E71AE8E0E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABE157-63E6-CB40-B589-D677ACF54B47}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{25B0E195-6A69-9C48-AB60-DDED52A7BC5F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E33E3C23-C88F-3C46-9456-13A3990DD438}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{D0E44FF2-F7AA-044F-831C-6FEDFF95143D}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093F2630-A2C3-E74C-BBED-7881FBADBB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F3E60-19C0-164E-B403-D38D24862489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -255,9 +255,6 @@
     <t>2023-1 PPGCR Edital N° 14.pdf</t>
   </si>
   <si>
-    <t>2023-1 PPGCR Edital N° 19 EN.pdf</t>
-  </si>
-  <si>
     <t>2023-1 PPGCR Edital N° 19 PT.pdf</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
   </si>
   <si>
     <t>2021-2 PPGCR Edital N° 11.pdf</t>
+  </si>
+  <si>
+    <t>2023-1 PPGCR Edital N° 20 EN.pdf</t>
   </si>
 </sst>
 </file>
@@ -869,57 +869,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -930,7 +930,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -941,7 +941,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -952,7 +952,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -974,7 +974,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -996,7 +996,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1007,7 +1007,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1018,7 +1018,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1029,7 +1029,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1062,7 +1062,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1073,7 +1073,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1084,7 +1084,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1095,7 +1095,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1106,7 +1106,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1128,7 +1128,7 @@
         <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
         <v>46</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1161,7 +1161,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1172,7 +1172,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1183,7 +1183,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1194,7 +1194,7 @@
         <v>51</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1205,7 +1205,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1216,7 +1216,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1227,7 +1227,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1238,7 +1238,7 @@
         <v>55</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1249,7 +1249,7 @@
         <v>56</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1260,7 +1260,7 @@
         <v>57</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1271,7 +1271,7 @@
         <v>58</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
         <v>59</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1293,7 +1293,7 @@
         <v>60</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,7 +1304,7 @@
         <v>62</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1315,7 +1315,7 @@
         <v>63</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1323,10 +1323,10 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1337,7 +1337,7 @@
         <v>64</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1348,7 +1348,7 @@
         <v>66</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1359,7 +1359,7 @@
         <v>68</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>69</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1381,7 +1381,7 @@
         <v>70</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1389,10 +1389,10 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
         <v>71</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1411,10 +1411,10 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1507,10 +1507,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1518,10 +1518,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1529,10 +1529,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1574,10 +1574,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1620,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1631,7 +1631,7 @@
         <v>67</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1639,10 +1639,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F3E60-19C0-164E-B403-D38D24862489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4C273F-87F3-8849-BF95-EFB07A65561B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
     <sheet name="Cooperação Interinstitucional" sheetId="10" r:id="rId2"/>
-    <sheet name="Empresas" sheetId="12" r:id="rId3"/>
-    <sheet name="Internacionais" sheetId="13" r:id="rId4"/>
+    <sheet name="Internacionais" sheetId="13" r:id="rId3"/>
+    <sheet name="Empresas" sheetId="12" r:id="rId4"/>
+    <sheet name="Prêmio" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="145">
   <si>
     <t>Publicação</t>
   </si>
@@ -463,6 +464,15 @@
   </si>
   <si>
     <t>2023-1 PPGCR Edital N° 20 EN.pdf</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2021 PPGCR Edital N° 12</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1N2eRx_YqeLsm06DEYo5wHTq4a_Z3mV_o</t>
   </si>
 </sst>
 </file>
@@ -1546,6 +1556,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABE157-63E6-CB40-B589-D677ACF54B47}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{25B0E195-6A69-9C48-AB60-DDED52A7BC5F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E33E3C23-C88F-3C46-9456-13A3990DD438}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{D0E44FF2-F7AA-044F-831C-6FEDFF95143D}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E1AFCF-A325-2F4F-9D5D-77CE2F7BED41}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1588,20 +1665,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABE157-63E6-CB40-B589-D677ACF54B47}">
-  <dimension ref="A1:C4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6813128-D320-6C40-9C25-32E16C6DF70D}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1614,42 +1691,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{25B0E195-6A69-9C48-AB60-DDED52A7BC5F}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E33E3C23-C88F-3C46-9456-13A3990DD438}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{D0E44FF2-F7AA-044F-831C-6FEDFF95143D}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{33A3E4C5-641A-5A43-BB6F-BFF39A687350}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4C273F-87F3-8849-BF95-EFB07A65561B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA083993-6F33-F845-A343-F77B6509C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Cooperação Interinstitucional" sheetId="10" r:id="rId2"/>
     <sheet name="Internacionais" sheetId="13" r:id="rId3"/>
     <sheet name="Empresas" sheetId="12" r:id="rId4"/>
-    <sheet name="Prêmio" sheetId="14" r:id="rId5"/>
+    <sheet name="Prêmios" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
   <si>
     <t>Publicação</t>
   </si>
@@ -448,9 +448,6 @@
     <t>https://drive.google.com/file/d/1UH-05ozUL9TZeutgzOdITs0yLeehBWB5</t>
   </si>
   <si>
-    <t>2023 UNISUAM IC.pdf</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1ifF0EPwBrb6VgMZaysDsM2ecqki7-dL9</t>
   </si>
   <si>
@@ -473,6 +470,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1N2eRx_YqeLsm06DEYo5wHTq4a_Z3mV_o</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2023 UNISUAM Alunos IC.pdf</t>
+  </si>
+  <si>
+    <t>2023 UNISUAM Projetos IC.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MmzMBtyAX3zaOLe2ImOr3z5-h4JOtICW</t>
   </si>
 </sst>
 </file>
@@ -855,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -879,156 +888,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1036,32 +1045,32 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1069,32 +1078,32 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1102,43 +1111,43 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>13</v>
+      <c r="A25" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1146,10 +1155,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1157,32 +1166,32 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1190,10 +1199,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1201,10 +1210,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1212,21 +1221,21 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1234,10 +1243,10 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1245,32 +1254,32 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1278,21 +1287,21 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1300,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1311,21 +1320,21 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1333,21 +1342,21 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1396,24 +1405,24 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>137</v>
+        <v>145</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>133</v>
+        <v>146</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1421,68 +1430,80 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
-    <sortCondition ref="A2:A51"/>
-    <sortCondition ref="B2:B51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C52">
+    <sortCondition ref="A2:A52"/>
+    <sortCondition ref="B2:B52"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{15EC7099-9814-B44B-87DE-BAEDF3870D45}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{8A0BE4B9-EBB4-1A46-A10A-48182AA5444B}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{E3D3EFB1-8690-4148-AF65-5466F95990C2}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{A1BB928C-D8CD-6D4B-9992-05FED996D03B}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{90B525A3-A65F-B646-BBC0-19DE22888F53}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{9D5F0318-F97C-C044-BDC9-4ADFB7A14F7C}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{892F1D45-C087-AA4F-B8F1-8A1CDA4D6878}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{54481569-682C-EF4A-97D8-1A9ACA0915DA}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{D46A0735-1D0E-7841-971A-72DEA9919708}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{3FC8274E-8869-1342-BD3A-C5A1CDF160EF}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{B0B319F2-9604-8049-8BDD-E4BFA5DA3F02}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{8268C58C-0C1E-8946-BA2B-9069609ADDDB}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{BBDE9D97-A909-0743-8747-0C0279FBEBFF}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{565ABB74-BBDD-F14F-8FDD-E868AC84E28A}"/>
-    <hyperlink ref="C18" r:id="rId15" xr:uid="{61A9FD10-CB42-C341-AA64-825F012EB293}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{9D2440F0-DF12-ED45-9AFB-32962AD34037}"/>
-    <hyperlink ref="C20" r:id="rId17" xr:uid="{D49F5424-7A7B-2247-9951-76ACB0136F2D}"/>
-    <hyperlink ref="C21" r:id="rId18" xr:uid="{A8FFDBD7-DBC5-944B-A16D-4919AAD6D955}"/>
-    <hyperlink ref="C22" r:id="rId19" xr:uid="{82EB7771-3D0D-BB4F-B616-38D59E228EBE}"/>
-    <hyperlink ref="C23" r:id="rId20" xr:uid="{525553BD-07FE-7D4D-ADC7-E1E90255A3C6}"/>
-    <hyperlink ref="C24" r:id="rId21" xr:uid="{31FE623B-C058-D041-B200-996CD8173B69}"/>
-    <hyperlink ref="C25" r:id="rId22" xr:uid="{FBF4AAE4-5CA0-984C-9CA9-9E8EF2B2D378}"/>
-    <hyperlink ref="C26" r:id="rId23" xr:uid="{05253A6E-0B3F-674D-AAE9-AAD8C9CC8C64}"/>
-    <hyperlink ref="C27" r:id="rId24" xr:uid="{17E66689-5DB6-0048-AEE3-2BD8C6C2F2F1}"/>
-    <hyperlink ref="C28" r:id="rId25" xr:uid="{3240F40D-0151-AB42-94B1-BF8BCA1BE400}"/>
-    <hyperlink ref="C29" r:id="rId26" xr:uid="{118C77A3-F659-EB4A-9776-475878CD8478}"/>
-    <hyperlink ref="C2" r:id="rId27" xr:uid="{F2599CE0-C17A-994C-83A1-CF34423960C5}"/>
-    <hyperlink ref="C30" r:id="rId28" xr:uid="{A4E23E74-B996-3444-9FB8-EB6297C795E1}"/>
-    <hyperlink ref="C31" r:id="rId29" xr:uid="{590C39CD-C461-CB48-A197-1CB6FDCA2FBB}"/>
-    <hyperlink ref="C32" r:id="rId30" xr:uid="{3B831F84-346B-8741-9979-5561CCB897D3}"/>
-    <hyperlink ref="C33" r:id="rId31" xr:uid="{98C5A3B5-C986-B140-9E17-9F974A22180B}"/>
-    <hyperlink ref="C34" r:id="rId32" xr:uid="{0510B957-7D9C-3E47-800E-ACFCE938719D}"/>
-    <hyperlink ref="C35" r:id="rId33" xr:uid="{65A4FECB-29A5-9A4E-BC9E-90CD94D26F59}"/>
-    <hyperlink ref="C36" r:id="rId34" xr:uid="{AD1BBC09-83AC-1945-A154-35B6893348C7}"/>
-    <hyperlink ref="C37" r:id="rId35" xr:uid="{9617D8AD-9582-014F-B6B3-16EE9CED92C9}"/>
-    <hyperlink ref="C38" r:id="rId36" xr:uid="{49BB7D4C-D982-C74A-8A4C-80EDFD5F731D}"/>
-    <hyperlink ref="C39" r:id="rId37" xr:uid="{5F0BA15F-60FE-3D48-A2E6-7C34C8803E08}"/>
-    <hyperlink ref="C40" r:id="rId38" xr:uid="{608E6FBE-1DD9-AD42-BD76-9970BB6BFCF8}"/>
-    <hyperlink ref="C41" r:id="rId39" xr:uid="{6146A27A-8B58-114F-8AF5-BA98FDCC5CA9}"/>
-    <hyperlink ref="C42" r:id="rId40" xr:uid="{E5E25086-20A9-B04A-A3A1-886AE4B02664}"/>
-    <hyperlink ref="C44" r:id="rId41" xr:uid="{901C03DF-774A-8145-945F-270A1659475B}"/>
-    <hyperlink ref="C43" r:id="rId42" xr:uid="{C3D39028-C46E-4E43-8E40-EB2AE977EFE2}"/>
-    <hyperlink ref="C3" r:id="rId43" xr:uid="{219EC97F-6C06-7841-B4F3-CBF4F8ED1675}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{15EC7099-9814-B44B-87DE-BAEDF3870D45}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8A0BE4B9-EBB4-1A46-A10A-48182AA5444B}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{E3D3EFB1-8690-4148-AF65-5466F95990C2}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{A1BB928C-D8CD-6D4B-9992-05FED996D03B}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{90B525A3-A65F-B646-BBC0-19DE22888F53}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{9D5F0318-F97C-C044-BDC9-4ADFB7A14F7C}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{892F1D45-C087-AA4F-B8F1-8A1CDA4D6878}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{54481569-682C-EF4A-97D8-1A9ACA0915DA}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{D46A0735-1D0E-7841-971A-72DEA9919708}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{3FC8274E-8869-1342-BD3A-C5A1CDF160EF}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{B0B319F2-9604-8049-8BDD-E4BFA5DA3F02}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{8268C58C-0C1E-8946-BA2B-9069609ADDDB}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{BBDE9D97-A909-0743-8747-0C0279FBEBFF}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{565ABB74-BBDD-F14F-8FDD-E868AC84E28A}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{61A9FD10-CB42-C341-AA64-825F012EB293}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{9D2440F0-DF12-ED45-9AFB-32962AD34037}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{D49F5424-7A7B-2247-9951-76ACB0136F2D}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{A8FFDBD7-DBC5-944B-A16D-4919AAD6D955}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{82EB7771-3D0D-BB4F-B616-38D59E228EBE}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{525553BD-07FE-7D4D-ADC7-E1E90255A3C6}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{31FE623B-C058-D041-B200-996CD8173B69}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{FBF4AAE4-5CA0-984C-9CA9-9E8EF2B2D378}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{05253A6E-0B3F-674D-AAE9-AAD8C9CC8C64}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{17E66689-5DB6-0048-AEE3-2BD8C6C2F2F1}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{3240F40D-0151-AB42-94B1-BF8BCA1BE400}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{118C77A3-F659-EB4A-9776-475878CD8478}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{F2599CE0-C17A-994C-83A1-CF34423960C5}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{A4E23E74-B996-3444-9FB8-EB6297C795E1}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{590C39CD-C461-CB48-A197-1CB6FDCA2FBB}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{3B831F84-346B-8741-9979-5561CCB897D3}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{98C5A3B5-C986-B140-9E17-9F974A22180B}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{0510B957-7D9C-3E47-800E-ACFCE938719D}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{65A4FECB-29A5-9A4E-BC9E-90CD94D26F59}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{AD1BBC09-83AC-1945-A154-35B6893348C7}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{9617D8AD-9582-014F-B6B3-16EE9CED92C9}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{49BB7D4C-D982-C74A-8A4C-80EDFD5F731D}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{5F0BA15F-60FE-3D48-A2E6-7C34C8803E08}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{608E6FBE-1DD9-AD42-BD76-9970BB6BFCF8}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{6146A27A-8B58-114F-8AF5-BA98FDCC5CA9}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{E5E25086-20A9-B04A-A3A1-886AE4B02664}"/>
+    <hyperlink ref="C43" r:id="rId41" xr:uid="{901C03DF-774A-8145-945F-270A1659475B}"/>
+    <hyperlink ref="C42" r:id="rId42" xr:uid="{C3D39028-C46E-4E43-8E40-EB2AE977EFE2}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{219EC97F-6C06-7841-B4F3-CBF4F8ED1675}"/>
     <hyperlink ref="C45" r:id="rId44" xr:uid="{8A5F4887-09E7-0242-BF18-5824AD0563E0}"/>
     <hyperlink ref="C46" r:id="rId45" xr:uid="{70EEDB82-9B21-ED4E-A809-7AB2EB4F65D1}"/>
     <hyperlink ref="C47" r:id="rId46" xr:uid="{C14124A0-FD94-AA4C-B262-5F846D255DF1}"/>
     <hyperlink ref="C48" r:id="rId47" xr:uid="{2CF0C181-8C04-314D-BBFE-322E25F13E50}"/>
-    <hyperlink ref="C50" r:id="rId48" xr:uid="{749A4B3E-220E-E340-8789-E6B2909AD9BC}"/>
-    <hyperlink ref="C51" r:id="rId49" xr:uid="{BA216F60-F3A2-EB42-849C-2AEA0EDB7250}"/>
-    <hyperlink ref="C49" r:id="rId50" xr:uid="{10106E17-D749-8341-A357-71EB491BC85D}"/>
+    <hyperlink ref="C51" r:id="rId48" xr:uid="{749A4B3E-220E-E340-8789-E6B2909AD9BC}"/>
+    <hyperlink ref="C52" r:id="rId49" xr:uid="{BA216F60-F3A2-EB42-849C-2AEA0EDB7250}"/>
+    <hyperlink ref="C49" r:id="rId50" xr:uid="{189B7CBB-3A0E-6443-9ADD-CF51CFA79496}"/>
+    <hyperlink ref="C50" r:id="rId51" xr:uid="{A029D1D7-70A5-DA48-9142-8E3C4B631FCD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1606,7 +1627,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>134</v>
@@ -1651,10 +1672,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1691,13 +1712,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
         <v>142</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA083993-6F33-F845-A343-F77B6509C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C40A010-F3BD-9E45-8C5C-D07544A16993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="151">
   <si>
     <t>Publicação</t>
   </si>
@@ -482,6 +482,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1MmzMBtyAX3zaOLe2ImOr3z5-h4JOtICW</t>
+  </si>
+  <si>
+    <t>2023-2</t>
+  </si>
+  <si>
+    <t>2023-1 PPGCR Edital N° 23.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iy5oEugRqZWWxGcixcvZdie1DRqFClOn</t>
   </si>
 </sst>
 </file>
@@ -864,9 +873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1445,6 +1456,17 @@
       </c>
       <c r="C52" s="6" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1504,6 +1526,7 @@
     <hyperlink ref="C52" r:id="rId49" xr:uid="{BA216F60-F3A2-EB42-849C-2AEA0EDB7250}"/>
     <hyperlink ref="C49" r:id="rId50" xr:uid="{189B7CBB-3A0E-6443-9ADD-CF51CFA79496}"/>
     <hyperlink ref="C50" r:id="rId51" xr:uid="{A029D1D7-70A5-DA48-9142-8E3C4B631FCD}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{251C250A-D40E-7045-B277-C5AD415AA34C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C40A010-F3BD-9E45-8C5C-D07544A16993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C934C-84C2-E74F-84F6-7C15F4554318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
   <si>
     <t>Publicação</t>
   </si>
@@ -274,9 +274,6 @@
     <t>2022</t>
   </si>
   <si>
-    <t>2021-1 PPGCR Edital N° 06 MA PIC.pdf</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1UWBGccw1ATRsOybT1OoRqAj9Dp026se7</t>
   </si>
   <si>
@@ -487,10 +484,19 @@
     <t>2023-2</t>
   </si>
   <si>
-    <t>2023-1 PPGCR Edital N° 23.pdf</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1iy5oEugRqZWWxGcixcvZdie1DRqFClOn</t>
+  </si>
+  <si>
+    <t>2023-2 PPGCR Edital N° 23.pdf</t>
+  </si>
+  <si>
+    <t>2021-1 PPGCR Edital N° 06 MA PCI.pdf</t>
+  </si>
+  <si>
+    <t>2023-2 PPGCR Edital N° 22 MA PCI.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Fpbf16YB4Vk31qY4NaUGugfa_mYo_cuh</t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -558,6 +564,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -905,7 +913,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -916,7 +924,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -927,7 +935,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -938,7 +946,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -949,7 +957,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -960,7 +968,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -971,7 +979,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -982,7 +990,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -993,7 +1001,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1004,7 +1012,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1015,7 +1023,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1026,7 +1034,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1037,7 +1045,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1048,7 +1056,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1059,7 +1067,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1070,7 +1078,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1081,7 +1089,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1092,7 +1100,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1103,7 +1111,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1114,7 +1122,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1125,7 +1133,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1136,7 +1144,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1147,7 +1155,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1158,7 +1166,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1169,7 +1177,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1180,7 +1188,7 @@
         <v>48</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1191,7 +1199,7 @@
         <v>49</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1202,7 +1210,7 @@
         <v>50</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1213,7 +1221,7 @@
         <v>51</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1224,7 +1232,7 @@
         <v>52</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1235,7 +1243,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1246,7 +1254,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1257,7 +1265,7 @@
         <v>55</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1268,7 +1276,7 @@
         <v>56</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1279,7 +1287,7 @@
         <v>57</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1290,7 +1298,7 @@
         <v>58</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,7 +1309,7 @@
         <v>59</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1312,7 +1320,7 @@
         <v>60</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1323,7 +1331,7 @@
         <v>62</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,7 +1342,7 @@
         <v>63</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1342,10 +1350,10 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1356,7 +1364,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1367,7 +1375,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1378,7 +1386,7 @@
         <v>66</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1389,7 +1397,7 @@
         <v>68</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1400,7 +1408,7 @@
         <v>69</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1411,29 +1419,29 @@
         <v>70</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="B49" t="s">
-        <v>145</v>
-      </c>
       <c r="C49" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1444,7 +1452,7 @@
         <v>71</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1455,18 +1463,18 @@
         <v>72</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
         <v>149</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5144D7-B25A-CE4F-B58F-DA2885DFA548}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1556,26 +1564,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1583,17 +1591,29 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>82</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1EEEDDA7-247B-4F49-BF0C-E53DA2D525B2}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{18F61104-3C01-C348-9B6E-A81D638E6E6A}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{A469E63A-F18B-B848-93F9-58A56DEDEDEE}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{1EEEDDA7-247B-4F49-BF0C-E53DA2D525B2}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{18F61104-3C01-C348-9B6E-A81D638E6E6A}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{A469E63A-F18B-B848-93F9-58A56DEDEDEE}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{3ED48FC9-72CE-5D46-A878-42D74F191481}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1631,7 +1651,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1642,7 +1662,7 @@
         <v>67</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1650,10 +1670,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1695,10 +1715,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1735,13 +1755,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C934C-84C2-E74F-84F6-7C15F4554318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C26054-9837-BC40-8096-A86EB7DC0866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
     <sheet name="Cooperação Interinstitucional" sheetId="10" r:id="rId2"/>
-    <sheet name="Internacionais" sheetId="13" r:id="rId3"/>
-    <sheet name="Empresas" sheetId="12" r:id="rId4"/>
-    <sheet name="Prêmios" sheetId="14" r:id="rId5"/>
+    <sheet name="Exterior" sheetId="15" r:id="rId3"/>
+    <sheet name="Internacionais" sheetId="13" r:id="rId4"/>
+    <sheet name="Empresas" sheetId="12" r:id="rId5"/>
+    <sheet name="Prêmios" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="155">
   <si>
     <t>Publicação</t>
   </si>
@@ -497,6 +498,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Fpbf16YB4Vk31qY4NaUGugfa_mYo_cuh</t>
+  </si>
+  <si>
+    <t>2021-1 PPGCR Edital N°6 PDSE-CAPES</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14hOkA0LDOIQe5bBY5_tPsasZHjLNl2mS</t>
   </si>
 </sst>
 </file>
@@ -556,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -564,8 +571,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -883,9 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1564,11 +1567,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>151</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1620,6 +1623,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D9E84F-3BB0-FC4F-9BD9-A93DD3ABFC74}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7CF251B5-21C4-7F48-9019-5D12FC85233E}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABE157-63E6-CB40-B589-D677ACF54B47}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1686,7 +1732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E1AFCF-A325-2F4F-9D5D-77CE2F7BED41}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1729,7 +1775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6813128-D320-6C40-9C25-32E16C6DF70D}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C26054-9837-BC40-8096-A86EB7DC0866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C4ABE0-EF6F-D340-8A84-71425A08DDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="160">
   <si>
     <t>Publicação</t>
   </si>
@@ -504,6 +504,21 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/14hOkA0LDOIQe5bBY5_tPsasZHjLNl2mS</t>
+  </si>
+  <si>
+    <t>2024-1</t>
+  </si>
+  <si>
+    <t>2024-1 PPGCR Edital N° 23.pdf</t>
+  </si>
+  <si>
+    <t>2024-1 PPGCR Edital N° 20 EN.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bBEkpuKCp6jx1iGCNFAY1GsVmfgY84Xn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bB7nUwKsbXGURjacB4NUk_uAm3d7yj6I</t>
   </si>
 </sst>
 </file>
@@ -886,7 +901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1478,6 +1493,28 @@
       </c>
       <c r="C53" s="6" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1538,6 +1575,8 @@
     <hyperlink ref="C49" r:id="rId50" xr:uid="{189B7CBB-3A0E-6443-9ADD-CF51CFA79496}"/>
     <hyperlink ref="C50" r:id="rId51" xr:uid="{A029D1D7-70A5-DA48-9142-8E3C4B631FCD}"/>
     <hyperlink ref="C53" r:id="rId52" xr:uid="{251C250A-D40E-7045-B277-C5AD415AA34C}"/>
+    <hyperlink ref="C55" r:id="rId53" xr:uid="{6995C3BF-053E-2C4A-9D76-E268F4A989AC}"/>
+    <hyperlink ref="C54" r:id="rId54" xr:uid="{DF2C73C6-4673-884A-BE3D-5AB271F9CB5D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C4ABE0-EF6F-D340-8A84-71425A08DDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055EA62F-C044-FB40-A1DF-50350D0439C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="163">
   <si>
     <t>Publicação</t>
   </si>
@@ -519,6 +519,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1bB7nUwKsbXGURjacB4NUk_uAm3d7yj6I</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2024 UNISUAM Projetos IC.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AhsZdkCiwpvZhNnpbPAsFyf643IPix6D</t>
   </si>
 </sst>
 </file>
@@ -605,9 +614,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -645,7 +654,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -751,7 +760,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -893,7 +902,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,9 +910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1497,13 +1508,13 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1511,9 +1522,20 @@
         <v>155</v>
       </c>
       <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1575,8 +1597,9 @@
     <hyperlink ref="C49" r:id="rId50" xr:uid="{189B7CBB-3A0E-6443-9ADD-CF51CFA79496}"/>
     <hyperlink ref="C50" r:id="rId51" xr:uid="{A029D1D7-70A5-DA48-9142-8E3C4B631FCD}"/>
     <hyperlink ref="C53" r:id="rId52" xr:uid="{251C250A-D40E-7045-B277-C5AD415AA34C}"/>
-    <hyperlink ref="C55" r:id="rId53" xr:uid="{6995C3BF-053E-2C4A-9D76-E268F4A989AC}"/>
-    <hyperlink ref="C54" r:id="rId54" xr:uid="{DF2C73C6-4673-884A-BE3D-5AB271F9CB5D}"/>
+    <hyperlink ref="C56" r:id="rId53" xr:uid="{6995C3BF-053E-2C4A-9D76-E268F4A989AC}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{DF2C73C6-4673-884A-BE3D-5AB271F9CB5D}"/>
+    <hyperlink ref="C54" r:id="rId55" xr:uid="{BB5873CB-613A-A149-9198-E0ED3B2B9BF4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055EA62F-C044-FB40-A1DF-50350D0439C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E88EC93-3D53-E946-9B6A-50CA88EDCE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="165">
   <si>
     <t>Publicação</t>
   </si>
@@ -528,6 +528,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1AhsZdkCiwpvZhNnpbPAsFyf643IPix6D</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bonde15FE5GFOF6kaNAMn7Lgh4wqDL9V</t>
+  </si>
+  <si>
+    <t>2024 UNISUAM Alunos IC.pdf</t>
   </si>
 </sst>
 </file>
@@ -910,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,596 +942,596 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>86</v>
+        <v>145</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>87</v>
+        <v>164</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>88</v>
+        <v>161</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
+      <c r="A23" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>5</v>
+      <c r="A29" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>135</v>
+        <v>68</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>162</v>
+        <v>72</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1539,67 +1545,79 @@
         <v>158</v>
       </c>
     </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C52">
-    <sortCondition ref="A2:A52"/>
-    <sortCondition ref="B2:B52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C57">
+    <sortCondition ref="A2:A57"/>
+    <sortCondition ref="B2:B57"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{15EC7099-9814-B44B-87DE-BAEDF3870D45}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{8A0BE4B9-EBB4-1A46-A10A-48182AA5444B}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{E3D3EFB1-8690-4148-AF65-5466F95990C2}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{A1BB928C-D8CD-6D4B-9992-05FED996D03B}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{90B525A3-A65F-B646-BBC0-19DE22888F53}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{9D5F0318-F97C-C044-BDC9-4ADFB7A14F7C}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{892F1D45-C087-AA4F-B8F1-8A1CDA4D6878}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{54481569-682C-EF4A-97D8-1A9ACA0915DA}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{D46A0735-1D0E-7841-971A-72DEA9919708}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{3FC8274E-8869-1342-BD3A-C5A1CDF160EF}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{B0B319F2-9604-8049-8BDD-E4BFA5DA3F02}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{8268C58C-0C1E-8946-BA2B-9069609ADDDB}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{BBDE9D97-A909-0743-8747-0C0279FBEBFF}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{565ABB74-BBDD-F14F-8FDD-E868AC84E28A}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{61A9FD10-CB42-C341-AA64-825F012EB293}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{9D2440F0-DF12-ED45-9AFB-32962AD34037}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{D49F5424-7A7B-2247-9951-76ACB0136F2D}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{A8FFDBD7-DBC5-944B-A16D-4919AAD6D955}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{82EB7771-3D0D-BB4F-B616-38D59E228EBE}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{525553BD-07FE-7D4D-ADC7-E1E90255A3C6}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{31FE623B-C058-D041-B200-996CD8173B69}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{FBF4AAE4-5CA0-984C-9CA9-9E8EF2B2D378}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{05253A6E-0B3F-674D-AAE9-AAD8C9CC8C64}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{17E66689-5DB6-0048-AEE3-2BD8C6C2F2F1}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{3240F40D-0151-AB42-94B1-BF8BCA1BE400}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{118C77A3-F659-EB4A-9776-475878CD8478}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{F2599CE0-C17A-994C-83A1-CF34423960C5}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{A4E23E74-B996-3444-9FB8-EB6297C795E1}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{590C39CD-C461-CB48-A197-1CB6FDCA2FBB}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{3B831F84-346B-8741-9979-5561CCB897D3}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{98C5A3B5-C986-B140-9E17-9F974A22180B}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{0510B957-7D9C-3E47-800E-ACFCE938719D}"/>
-    <hyperlink ref="C34" r:id="rId33" xr:uid="{65A4FECB-29A5-9A4E-BC9E-90CD94D26F59}"/>
-    <hyperlink ref="C35" r:id="rId34" xr:uid="{AD1BBC09-83AC-1945-A154-35B6893348C7}"/>
-    <hyperlink ref="C36" r:id="rId35" xr:uid="{9617D8AD-9582-014F-B6B3-16EE9CED92C9}"/>
-    <hyperlink ref="C37" r:id="rId36" xr:uid="{49BB7D4C-D982-C74A-8A4C-80EDFD5F731D}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{5F0BA15F-60FE-3D48-A2E6-7C34C8803E08}"/>
-    <hyperlink ref="C39" r:id="rId38" xr:uid="{608E6FBE-1DD9-AD42-BD76-9970BB6BFCF8}"/>
-    <hyperlink ref="C40" r:id="rId39" xr:uid="{6146A27A-8B58-114F-8AF5-BA98FDCC5CA9}"/>
-    <hyperlink ref="C41" r:id="rId40" xr:uid="{E5E25086-20A9-B04A-A3A1-886AE4B02664}"/>
-    <hyperlink ref="C43" r:id="rId41" xr:uid="{901C03DF-774A-8145-945F-270A1659475B}"/>
-    <hyperlink ref="C42" r:id="rId42" xr:uid="{C3D39028-C46E-4E43-8E40-EB2AE977EFE2}"/>
-    <hyperlink ref="C44" r:id="rId43" xr:uid="{219EC97F-6C06-7841-B4F3-CBF4F8ED1675}"/>
-    <hyperlink ref="C45" r:id="rId44" xr:uid="{8A5F4887-09E7-0242-BF18-5824AD0563E0}"/>
-    <hyperlink ref="C46" r:id="rId45" xr:uid="{70EEDB82-9B21-ED4E-A809-7AB2EB4F65D1}"/>
-    <hyperlink ref="C47" r:id="rId46" xr:uid="{C14124A0-FD94-AA4C-B262-5F846D255DF1}"/>
-    <hyperlink ref="C48" r:id="rId47" xr:uid="{2CF0C181-8C04-314D-BBFE-322E25F13E50}"/>
-    <hyperlink ref="C51" r:id="rId48" xr:uid="{749A4B3E-220E-E340-8789-E6B2909AD9BC}"/>
-    <hyperlink ref="C52" r:id="rId49" xr:uid="{BA216F60-F3A2-EB42-849C-2AEA0EDB7250}"/>
-    <hyperlink ref="C49" r:id="rId50" xr:uid="{189B7CBB-3A0E-6443-9ADD-CF51CFA79496}"/>
-    <hyperlink ref="C50" r:id="rId51" xr:uid="{A029D1D7-70A5-DA48-9142-8E3C4B631FCD}"/>
-    <hyperlink ref="C53" r:id="rId52" xr:uid="{251C250A-D40E-7045-B277-C5AD415AA34C}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{15EC7099-9814-B44B-87DE-BAEDF3870D45}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{8A0BE4B9-EBB4-1A46-A10A-48182AA5444B}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{E3D3EFB1-8690-4148-AF65-5466F95990C2}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{A1BB928C-D8CD-6D4B-9992-05FED996D03B}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{90B525A3-A65F-B646-BBC0-19DE22888F53}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{9D5F0318-F97C-C044-BDC9-4ADFB7A14F7C}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{892F1D45-C087-AA4F-B8F1-8A1CDA4D6878}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{54481569-682C-EF4A-97D8-1A9ACA0915DA}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{D46A0735-1D0E-7841-971A-72DEA9919708}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{3FC8274E-8869-1342-BD3A-C5A1CDF160EF}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{B0B319F2-9604-8049-8BDD-E4BFA5DA3F02}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{8268C58C-0C1E-8946-BA2B-9069609ADDDB}"/>
+    <hyperlink ref="C20" r:id="rId13" xr:uid="{BBDE9D97-A909-0743-8747-0C0279FBEBFF}"/>
+    <hyperlink ref="C21" r:id="rId14" xr:uid="{565ABB74-BBDD-F14F-8FDD-E868AC84E28A}"/>
+    <hyperlink ref="C22" r:id="rId15" xr:uid="{61A9FD10-CB42-C341-AA64-825F012EB293}"/>
+    <hyperlink ref="C23" r:id="rId16" xr:uid="{9D2440F0-DF12-ED45-9AFB-32962AD34037}"/>
+    <hyperlink ref="C24" r:id="rId17" xr:uid="{D49F5424-7A7B-2247-9951-76ACB0136F2D}"/>
+    <hyperlink ref="C25" r:id="rId18" xr:uid="{A8FFDBD7-DBC5-944B-A16D-4919AAD6D955}"/>
+    <hyperlink ref="C26" r:id="rId19" xr:uid="{82EB7771-3D0D-BB4F-B616-38D59E228EBE}"/>
+    <hyperlink ref="C27" r:id="rId20" xr:uid="{525553BD-07FE-7D4D-ADC7-E1E90255A3C6}"/>
+    <hyperlink ref="C28" r:id="rId21" xr:uid="{31FE623B-C058-D041-B200-996CD8173B69}"/>
+    <hyperlink ref="C29" r:id="rId22" xr:uid="{FBF4AAE4-5CA0-984C-9CA9-9E8EF2B2D378}"/>
+    <hyperlink ref="C30" r:id="rId23" xr:uid="{05253A6E-0B3F-674D-AAE9-AAD8C9CC8C64}"/>
+    <hyperlink ref="C31" r:id="rId24" xr:uid="{17E66689-5DB6-0048-AEE3-2BD8C6C2F2F1}"/>
+    <hyperlink ref="C32" r:id="rId25" xr:uid="{3240F40D-0151-AB42-94B1-BF8BCA1BE400}"/>
+    <hyperlink ref="C33" r:id="rId26" xr:uid="{118C77A3-F659-EB4A-9776-475878CD8478}"/>
+    <hyperlink ref="C2" r:id="rId27" xr:uid="{F2599CE0-C17A-994C-83A1-CF34423960C5}"/>
+    <hyperlink ref="C34" r:id="rId28" xr:uid="{A4E23E74-B996-3444-9FB8-EB6297C795E1}"/>
+    <hyperlink ref="C35" r:id="rId29" xr:uid="{590C39CD-C461-CB48-A197-1CB6FDCA2FBB}"/>
+    <hyperlink ref="C36" r:id="rId30" xr:uid="{3B831F84-346B-8741-9979-5561CCB897D3}"/>
+    <hyperlink ref="C37" r:id="rId31" xr:uid="{98C5A3B5-C986-B140-9E17-9F974A22180B}"/>
+    <hyperlink ref="C38" r:id="rId32" xr:uid="{0510B957-7D9C-3E47-800E-ACFCE938719D}"/>
+    <hyperlink ref="C39" r:id="rId33" xr:uid="{65A4FECB-29A5-9A4E-BC9E-90CD94D26F59}"/>
+    <hyperlink ref="C40" r:id="rId34" xr:uid="{AD1BBC09-83AC-1945-A154-35B6893348C7}"/>
+    <hyperlink ref="C41" r:id="rId35" xr:uid="{9617D8AD-9582-014F-B6B3-16EE9CED92C9}"/>
+    <hyperlink ref="C42" r:id="rId36" xr:uid="{49BB7D4C-D982-C74A-8A4C-80EDFD5F731D}"/>
+    <hyperlink ref="C43" r:id="rId37" xr:uid="{5F0BA15F-60FE-3D48-A2E6-7C34C8803E08}"/>
+    <hyperlink ref="C44" r:id="rId38" xr:uid="{608E6FBE-1DD9-AD42-BD76-9970BB6BFCF8}"/>
+    <hyperlink ref="C45" r:id="rId39" xr:uid="{6146A27A-8B58-114F-8AF5-BA98FDCC5CA9}"/>
+    <hyperlink ref="C46" r:id="rId40" xr:uid="{E5E25086-20A9-B04A-A3A1-886AE4B02664}"/>
+    <hyperlink ref="C47" r:id="rId41" xr:uid="{901C03DF-774A-8145-945F-270A1659475B}"/>
+    <hyperlink ref="C48" r:id="rId42" xr:uid="{C3D39028-C46E-4E43-8E40-EB2AE977EFE2}"/>
+    <hyperlink ref="C3" r:id="rId43" xr:uid="{219EC97F-6C06-7841-B4F3-CBF4F8ED1675}"/>
+    <hyperlink ref="C49" r:id="rId44" xr:uid="{8A5F4887-09E7-0242-BF18-5824AD0563E0}"/>
+    <hyperlink ref="C50" r:id="rId45" xr:uid="{70EEDB82-9B21-ED4E-A809-7AB2EB4F65D1}"/>
+    <hyperlink ref="C51" r:id="rId46" xr:uid="{C14124A0-FD94-AA4C-B262-5F846D255DF1}"/>
+    <hyperlink ref="C52" r:id="rId47" xr:uid="{2CF0C181-8C04-314D-BBFE-322E25F13E50}"/>
+    <hyperlink ref="C53" r:id="rId48" xr:uid="{749A4B3E-220E-E340-8789-E6B2909AD9BC}"/>
+    <hyperlink ref="C54" r:id="rId49" xr:uid="{BA216F60-F3A2-EB42-849C-2AEA0EDB7250}"/>
+    <hyperlink ref="C4" r:id="rId50" xr:uid="{189B7CBB-3A0E-6443-9ADD-CF51CFA79496}"/>
+    <hyperlink ref="C5" r:id="rId51" xr:uid="{A029D1D7-70A5-DA48-9142-8E3C4B631FCD}"/>
+    <hyperlink ref="C55" r:id="rId52" xr:uid="{251C250A-D40E-7045-B277-C5AD415AA34C}"/>
     <hyperlink ref="C56" r:id="rId53" xr:uid="{6995C3BF-053E-2C4A-9D76-E268F4A989AC}"/>
-    <hyperlink ref="C55" r:id="rId54" xr:uid="{DF2C73C6-4673-884A-BE3D-5AB271F9CB5D}"/>
-    <hyperlink ref="C54" r:id="rId55" xr:uid="{BB5873CB-613A-A149-9198-E0ED3B2B9BF4}"/>
+    <hyperlink ref="C57" r:id="rId54" xr:uid="{DF2C73C6-4673-884A-BE3D-5AB271F9CB5D}"/>
+    <hyperlink ref="C7" r:id="rId55" xr:uid="{BB5873CB-613A-A149-9198-E0ED3B2B9BF4}"/>
+    <hyperlink ref="C6" r:id="rId56" xr:uid="{C77E680F-162A-4D4F-8C00-3B42622A23E2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E88EC93-3D53-E946-9B6A-50CA88EDCE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42062D9-3EC5-224F-8287-3AC87494FF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="168">
   <si>
     <t>Publicação</t>
   </si>
@@ -534,6 +534,15 @@
   </si>
   <si>
     <t>2024 UNISUAM Alunos IC.pdf</t>
+  </si>
+  <si>
+    <t>2024-2</t>
+  </si>
+  <si>
+    <t>2024-2 PPGCR Edital N° 3.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11ZhoyT_FIKrrf7blGtDaHgLAhAxKFWDH</t>
   </si>
 </sst>
 </file>
@@ -620,9 +629,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -660,7 +669,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -766,7 +775,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -908,7 +917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -918,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -1539,27 +1548,27 @@
         <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C57">
-    <sortCondition ref="A2:A57"/>
-    <sortCondition ref="B2:B57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C56">
+    <sortCondition ref="A2:A56"/>
+    <sortCondition ref="B2:B56"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{15EC7099-9814-B44B-87DE-BAEDF3870D45}"/>
@@ -1614,10 +1623,10 @@
     <hyperlink ref="C4" r:id="rId50" xr:uid="{189B7CBB-3A0E-6443-9ADD-CF51CFA79496}"/>
     <hyperlink ref="C5" r:id="rId51" xr:uid="{A029D1D7-70A5-DA48-9142-8E3C4B631FCD}"/>
     <hyperlink ref="C55" r:id="rId52" xr:uid="{251C250A-D40E-7045-B277-C5AD415AA34C}"/>
-    <hyperlink ref="C56" r:id="rId53" xr:uid="{6995C3BF-053E-2C4A-9D76-E268F4A989AC}"/>
-    <hyperlink ref="C57" r:id="rId54" xr:uid="{DF2C73C6-4673-884A-BE3D-5AB271F9CB5D}"/>
-    <hyperlink ref="C7" r:id="rId55" xr:uid="{BB5873CB-613A-A149-9198-E0ED3B2B9BF4}"/>
-    <hyperlink ref="C6" r:id="rId56" xr:uid="{C77E680F-162A-4D4F-8C00-3B42622A23E2}"/>
+    <hyperlink ref="C56" r:id="rId53" xr:uid="{DF2C73C6-4673-884A-BE3D-5AB271F9CB5D}"/>
+    <hyperlink ref="C7" r:id="rId54" xr:uid="{BB5873CB-613A-A149-9198-E0ED3B2B9BF4}"/>
+    <hyperlink ref="C6" r:id="rId55" xr:uid="{C77E680F-162A-4D4F-8C00-3B42622A23E2}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{A296B30C-2AB0-8F46-A486-DFE71664DAE6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1747,7 +1756,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABE157-63E6-CB40-B589-D677ACF54B47}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1802,11 +1811,23 @@
         <v>133</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{25B0E195-6A69-9C48-AB60-DDED52A7BC5F}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{E33E3C23-C88F-3C46-9456-13A3990DD438}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{D0E44FF2-F7AA-044F-831C-6FEDFF95143D}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{6995C3BF-053E-2C4A-9D76-E268F4A989AC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42062D9-3EC5-224F-8287-3AC87494FF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93833A62-6A24-1F41-8A3A-6BCC901E309B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="177">
   <si>
     <t>Publicação</t>
   </si>
@@ -543,6 +543,33 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/11ZhoyT_FIKrrf7blGtDaHgLAhAxKFWDH</t>
+  </si>
+  <si>
+    <t>2025-1</t>
+  </si>
+  <si>
+    <t>2025-1 PPGCR Edital N° 1.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12mcwdF5cQwM0KhEca__LM8kzEtOGkSJw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/123v08vwPU1M1TzGgT5v6RAsZJtKl6Oqp</t>
+  </si>
+  <si>
+    <t>2025-1 PPGCR Edital N° 07 MA PCI.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12pK_BZLVwb3c2UWRUi6LvGY6zuOeDOD6</t>
+  </si>
+  <si>
+    <t>2025-1 PPGCR Edital N° 6 EN.pdf</t>
+  </si>
+  <si>
+    <t>2025-1 PPGCR Edital N° 5.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/131r-vqWMjLR5G4z9Bs4N7H_dLDAntCRI</t>
   </si>
 </sst>
 </file>
@@ -629,9 +656,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -669,7 +696,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -775,7 +802,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -917,7 +944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -925,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1563,6 +1590,28 @@
       </c>
       <c r="C57" s="5" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1627,6 +1676,8 @@
     <hyperlink ref="C7" r:id="rId54" xr:uid="{BB5873CB-613A-A149-9198-E0ED3B2B9BF4}"/>
     <hyperlink ref="C6" r:id="rId55" xr:uid="{C77E680F-162A-4D4F-8C00-3B42622A23E2}"/>
     <hyperlink ref="C57" r:id="rId56" xr:uid="{A296B30C-2AB0-8F46-A486-DFE71664DAE6}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{7CEA0658-4D41-9C49-AC5B-43898BF56F75}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{DD5D1F58-B3C2-C84B-A1E7-37C3BA35B59C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1634,7 +1685,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5144D7-B25A-CE4F-B58F-DA2885DFA548}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1658,35 +1709,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1694,18 +1745,30 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{1EEEDDA7-247B-4F49-BF0C-E53DA2D525B2}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{18F61104-3C01-C348-9B6E-A81D638E6E6A}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{A469E63A-F18B-B848-93F9-58A56DEDEDEE}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{3ED48FC9-72CE-5D46-A878-42D74F191481}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{1EEEDDA7-247B-4F49-BF0C-E53DA2D525B2}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{18F61104-3C01-C348-9B6E-A81D638E6E6A}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{A469E63A-F18B-B848-93F9-58A56DEDEDEE}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{3ED48FC9-72CE-5D46-A878-42D74F191481}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{F26C25B0-D7B4-5D41-B55E-9D2A1EEEA8A9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1756,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABE157-63E6-CB40-B589-D677ACF54B47}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1822,12 +1885,24 @@
         <v>158</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{25B0E195-6A69-9C48-AB60-DDED52A7BC5F}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{E33E3C23-C88F-3C46-9456-13A3990DD438}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{D0E44FF2-F7AA-044F-831C-6FEDFF95143D}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{6995C3BF-053E-2C4A-9D76-E268F4A989AC}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{7D4FC16B-A3E7-144A-9623-6A6D25A7A2E7}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93833A62-6A24-1F41-8A3A-6BCC901E309B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6590DEA1-F35C-224B-AE79-066ECB2AAF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="179">
   <si>
     <t>Publicação</t>
   </si>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/131r-vqWMjLR5G4z9Bs4N7H_dLDAntCRI</t>
+  </si>
+  <si>
+    <t>2025-1 PPGCR Edital N°7 PDSE-CAPES</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13HOz8M7eigezjKpmoj3h-kJTjNS727RR</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D9E84F-3BB0-FC4F-9BD9-A93DD3ABFC74}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1809,9 +1815,21 @@
         <v>154</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7CF251B5-21C4-7F48-9019-5D12FC85233E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{C2B1BFF1-176B-A941-B8C2-5CE212613F7C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6590DEA1-F35C-224B-AE79-066ECB2AAF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2AF415-4B12-5341-B548-C58AC78A921F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27640" windowHeight="16900" activeTab="5" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
   <si>
     <t>Publicação</t>
   </si>
@@ -576,6 +576,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/13HOz8M7eigezjKpmoj3h-kJTjNS727RR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y08-c9HR1Nchjyu3KTntB22rSFvMCvow</t>
+  </si>
+  <si>
+    <t>2024 PPGCR Edital N° 07</t>
   </si>
 </sst>
 </file>
@@ -960,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -1971,14 +1977,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6813128-D320-6C40-9C25-32E16C6DF70D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1986,7 +1992,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1997,16 +2003,28 @@
       <c r="A2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{33A3E4C5-641A-5A43-BB6F-BFF39A687350}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D21492E0-C4E4-D845-A213-2301FCFA6AB0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2AF415-4B12-5341-B548-C58AC78A921F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DC4125-BD15-F940-ABE3-D49B96A44389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27640" windowHeight="16900" activeTab="5" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="189">
   <si>
     <t>Publicação</t>
   </si>
@@ -582,6 +582,30 @@
   </si>
   <si>
     <t>2024 PPGCR Edital N° 07</t>
+  </si>
+  <si>
+    <t>2019-1 UNISUAM IC.pdf</t>
+  </si>
+  <si>
+    <t>2023-1 UNISUAM IC Alunos.pdf</t>
+  </si>
+  <si>
+    <t>2023-1 UNISUAM IC Projetos.pdf</t>
+  </si>
+  <si>
+    <t>2024-1 UNISUAM IC Projetos.pdf</t>
+  </si>
+  <si>
+    <t>2024-1 UNISUAM IC Aunos.pdf</t>
+  </si>
+  <si>
+    <t>2025-1 UNISUAM IC Projetos.pdf</t>
+  </si>
+  <si>
+    <t>2022-1 UNISUAM IC.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aFt9JTMAceutp62X8BVKxp0gsh4Qymp9</t>
   </si>
 </sst>
 </file>
@@ -964,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,21 +1402,21 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1400,10 +1424,10 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1411,32 +1435,32 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1444,21 +1468,21 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1466,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1477,21 +1501,21 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1499,21 +1523,21 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1521,10 +1545,10 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1532,104 +1556,181 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>159</v>
+        <v>183</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>167</v>
+        <v>71</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>170</v>
+        <v>72</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B64" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>176</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C56">
-    <sortCondition ref="A2:A56"/>
-    <sortCondition ref="B2:B56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C62">
+    <sortCondition ref="A2:A62"/>
+    <sortCondition ref="B2:B62"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{15EC7099-9814-B44B-87DE-BAEDF3870D45}"/>
@@ -1662,34 +1763,41 @@
     <hyperlink ref="C34" r:id="rId28" xr:uid="{A4E23E74-B996-3444-9FB8-EB6297C795E1}"/>
     <hyperlink ref="C35" r:id="rId29" xr:uid="{590C39CD-C461-CB48-A197-1CB6FDCA2FBB}"/>
     <hyperlink ref="C36" r:id="rId30" xr:uid="{3B831F84-346B-8741-9979-5561CCB897D3}"/>
-    <hyperlink ref="C37" r:id="rId31" xr:uid="{98C5A3B5-C986-B140-9E17-9F974A22180B}"/>
-    <hyperlink ref="C38" r:id="rId32" xr:uid="{0510B957-7D9C-3E47-800E-ACFCE938719D}"/>
-    <hyperlink ref="C39" r:id="rId33" xr:uid="{65A4FECB-29A5-9A4E-BC9E-90CD94D26F59}"/>
-    <hyperlink ref="C40" r:id="rId34" xr:uid="{AD1BBC09-83AC-1945-A154-35B6893348C7}"/>
-    <hyperlink ref="C41" r:id="rId35" xr:uid="{9617D8AD-9582-014F-B6B3-16EE9CED92C9}"/>
-    <hyperlink ref="C42" r:id="rId36" xr:uid="{49BB7D4C-D982-C74A-8A4C-80EDFD5F731D}"/>
-    <hyperlink ref="C43" r:id="rId37" xr:uid="{5F0BA15F-60FE-3D48-A2E6-7C34C8803E08}"/>
-    <hyperlink ref="C44" r:id="rId38" xr:uid="{608E6FBE-1DD9-AD42-BD76-9970BB6BFCF8}"/>
-    <hyperlink ref="C45" r:id="rId39" xr:uid="{6146A27A-8B58-114F-8AF5-BA98FDCC5CA9}"/>
-    <hyperlink ref="C46" r:id="rId40" xr:uid="{E5E25086-20A9-B04A-A3A1-886AE4B02664}"/>
-    <hyperlink ref="C47" r:id="rId41" xr:uid="{901C03DF-774A-8145-945F-270A1659475B}"/>
-    <hyperlink ref="C48" r:id="rId42" xr:uid="{C3D39028-C46E-4E43-8E40-EB2AE977EFE2}"/>
+    <hyperlink ref="C38" r:id="rId31" xr:uid="{98C5A3B5-C986-B140-9E17-9F974A22180B}"/>
+    <hyperlink ref="C39" r:id="rId32" xr:uid="{0510B957-7D9C-3E47-800E-ACFCE938719D}"/>
+    <hyperlink ref="C40" r:id="rId33" xr:uid="{65A4FECB-29A5-9A4E-BC9E-90CD94D26F59}"/>
+    <hyperlink ref="C41" r:id="rId34" xr:uid="{AD1BBC09-83AC-1945-A154-35B6893348C7}"/>
+    <hyperlink ref="C42" r:id="rId35" xr:uid="{9617D8AD-9582-014F-B6B3-16EE9CED92C9}"/>
+    <hyperlink ref="C43" r:id="rId36" xr:uid="{49BB7D4C-D982-C74A-8A4C-80EDFD5F731D}"/>
+    <hyperlink ref="C44" r:id="rId37" xr:uid="{5F0BA15F-60FE-3D48-A2E6-7C34C8803E08}"/>
+    <hyperlink ref="C45" r:id="rId38" xr:uid="{608E6FBE-1DD9-AD42-BD76-9970BB6BFCF8}"/>
+    <hyperlink ref="C46" r:id="rId39" xr:uid="{6146A27A-8B58-114F-8AF5-BA98FDCC5CA9}"/>
+    <hyperlink ref="C47" r:id="rId40" xr:uid="{E5E25086-20A9-B04A-A3A1-886AE4B02664}"/>
+    <hyperlink ref="C48" r:id="rId41" xr:uid="{901C03DF-774A-8145-945F-270A1659475B}"/>
+    <hyperlink ref="C49" r:id="rId42" xr:uid="{C3D39028-C46E-4E43-8E40-EB2AE977EFE2}"/>
     <hyperlink ref="C3" r:id="rId43" xr:uid="{219EC97F-6C06-7841-B4F3-CBF4F8ED1675}"/>
-    <hyperlink ref="C49" r:id="rId44" xr:uid="{8A5F4887-09E7-0242-BF18-5824AD0563E0}"/>
-    <hyperlink ref="C50" r:id="rId45" xr:uid="{70EEDB82-9B21-ED4E-A809-7AB2EB4F65D1}"/>
-    <hyperlink ref="C51" r:id="rId46" xr:uid="{C14124A0-FD94-AA4C-B262-5F846D255DF1}"/>
-    <hyperlink ref="C52" r:id="rId47" xr:uid="{2CF0C181-8C04-314D-BBFE-322E25F13E50}"/>
-    <hyperlink ref="C53" r:id="rId48" xr:uid="{749A4B3E-220E-E340-8789-E6B2909AD9BC}"/>
-    <hyperlink ref="C54" r:id="rId49" xr:uid="{BA216F60-F3A2-EB42-849C-2AEA0EDB7250}"/>
+    <hyperlink ref="C51" r:id="rId44" xr:uid="{8A5F4887-09E7-0242-BF18-5824AD0563E0}"/>
+    <hyperlink ref="C52" r:id="rId45" xr:uid="{70EEDB82-9B21-ED4E-A809-7AB2EB4F65D1}"/>
+    <hyperlink ref="C53" r:id="rId46" xr:uid="{C14124A0-FD94-AA4C-B262-5F846D255DF1}"/>
+    <hyperlink ref="C54" r:id="rId47" xr:uid="{2CF0C181-8C04-314D-BBFE-322E25F13E50}"/>
+    <hyperlink ref="C57" r:id="rId48" xr:uid="{749A4B3E-220E-E340-8789-E6B2909AD9BC}"/>
+    <hyperlink ref="C58" r:id="rId49" xr:uid="{BA216F60-F3A2-EB42-849C-2AEA0EDB7250}"/>
     <hyperlink ref="C4" r:id="rId50" xr:uid="{189B7CBB-3A0E-6443-9ADD-CF51CFA79496}"/>
     <hyperlink ref="C5" r:id="rId51" xr:uid="{A029D1D7-70A5-DA48-9142-8E3C4B631FCD}"/>
-    <hyperlink ref="C55" r:id="rId52" xr:uid="{251C250A-D40E-7045-B277-C5AD415AA34C}"/>
-    <hyperlink ref="C56" r:id="rId53" xr:uid="{DF2C73C6-4673-884A-BE3D-5AB271F9CB5D}"/>
+    <hyperlink ref="C59" r:id="rId52" xr:uid="{251C250A-D40E-7045-B277-C5AD415AA34C}"/>
+    <hyperlink ref="C62" r:id="rId53" xr:uid="{DF2C73C6-4673-884A-BE3D-5AB271F9CB5D}"/>
     <hyperlink ref="C7" r:id="rId54" xr:uid="{BB5873CB-613A-A149-9198-E0ED3B2B9BF4}"/>
     <hyperlink ref="C6" r:id="rId55" xr:uid="{C77E680F-162A-4D4F-8C00-3B42622A23E2}"/>
-    <hyperlink ref="C57" r:id="rId56" xr:uid="{A296B30C-2AB0-8F46-A486-DFE71664DAE6}"/>
-    <hyperlink ref="C58" r:id="rId57" xr:uid="{7CEA0658-4D41-9C49-AC5B-43898BF56F75}"/>
-    <hyperlink ref="C59" r:id="rId58" xr:uid="{DD5D1F58-B3C2-C84B-A1E7-37C3BA35B59C}"/>
+    <hyperlink ref="C63" r:id="rId56" xr:uid="{A296B30C-2AB0-8F46-A486-DFE71664DAE6}"/>
+    <hyperlink ref="C65" r:id="rId57" xr:uid="{7CEA0658-4D41-9C49-AC5B-43898BF56F75}"/>
+    <hyperlink ref="C66" r:id="rId58" xr:uid="{DD5D1F58-B3C2-C84B-A1E7-37C3BA35B59C}"/>
+    <hyperlink ref="C37" r:id="rId59" xr:uid="{C2EA3F43-6216-954D-84C8-4569CF1B6EA7}"/>
+    <hyperlink ref="C50" r:id="rId60" xr:uid="{4E3B470F-B4AD-0748-846E-FCB296B68532}"/>
+    <hyperlink ref="C55" r:id="rId61" xr:uid="{C6F82B8C-0362-E241-92E7-6B7E184C1DF9}"/>
+    <hyperlink ref="C56" r:id="rId62" xr:uid="{7EA9BC2C-4F6A-6C40-9411-9E6E7773422E}"/>
+    <hyperlink ref="C60" r:id="rId63" xr:uid="{D041F911-AEBF-2645-A7B2-7CD12265C2FB}"/>
+    <hyperlink ref="C61" r:id="rId64" xr:uid="{00CD0756-0AC4-B64E-9123-A817C282E043}"/>
+    <hyperlink ref="C64" r:id="rId65" xr:uid="{B079AD41-BB5E-A54E-85AE-AA0C24E94512}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1979,7 +2087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6813128-D320-6C40-9C25-32E16C6DF70D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DC4125-BD15-F940-ABE3-D49B96A44389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE85AC1-A8B4-154A-80E0-EDC55DDC1A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="191">
   <si>
     <t>Publicação</t>
   </si>
@@ -606,6 +606,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1aFt9JTMAceutp62X8BVKxp0gsh4Qymp9</t>
+  </si>
+  <si>
+    <t>2025-1 UNISUAM IC Aunos.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hZJIPvb_8PUldtAilKARNggfaYc_aiBH</t>
   </si>
 </sst>
 </file>
@@ -988,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1699,10 +1705,10 @@
         <v>168</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1710,10 +1716,10 @@
         <v>168</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>170</v>
+        <v>186</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,9 +1727,20 @@
         <v>168</v>
       </c>
       <c r="B66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1789,15 +1806,16 @@
     <hyperlink ref="C7" r:id="rId54" xr:uid="{BB5873CB-613A-A149-9198-E0ED3B2B9BF4}"/>
     <hyperlink ref="C6" r:id="rId55" xr:uid="{C77E680F-162A-4D4F-8C00-3B42622A23E2}"/>
     <hyperlink ref="C63" r:id="rId56" xr:uid="{A296B30C-2AB0-8F46-A486-DFE71664DAE6}"/>
-    <hyperlink ref="C65" r:id="rId57" xr:uid="{7CEA0658-4D41-9C49-AC5B-43898BF56F75}"/>
-    <hyperlink ref="C66" r:id="rId58" xr:uid="{DD5D1F58-B3C2-C84B-A1E7-37C3BA35B59C}"/>
+    <hyperlink ref="C66" r:id="rId57" xr:uid="{7CEA0658-4D41-9C49-AC5B-43898BF56F75}"/>
+    <hyperlink ref="C67" r:id="rId58" xr:uid="{DD5D1F58-B3C2-C84B-A1E7-37C3BA35B59C}"/>
     <hyperlink ref="C37" r:id="rId59" xr:uid="{C2EA3F43-6216-954D-84C8-4569CF1B6EA7}"/>
     <hyperlink ref="C50" r:id="rId60" xr:uid="{4E3B470F-B4AD-0748-846E-FCB296B68532}"/>
     <hyperlink ref="C55" r:id="rId61" xr:uid="{C6F82B8C-0362-E241-92E7-6B7E184C1DF9}"/>
     <hyperlink ref="C56" r:id="rId62" xr:uid="{7EA9BC2C-4F6A-6C40-9411-9E6E7773422E}"/>
     <hyperlink ref="C60" r:id="rId63" xr:uid="{D041F911-AEBF-2645-A7B2-7CD12265C2FB}"/>
     <hyperlink ref="C61" r:id="rId64" xr:uid="{00CD0756-0AC4-B64E-9123-A817C282E043}"/>
-    <hyperlink ref="C64" r:id="rId65" xr:uid="{B079AD41-BB5E-A54E-85AE-AA0C24E94512}"/>
+    <hyperlink ref="C65" r:id="rId65" xr:uid="{B079AD41-BB5E-A54E-85AE-AA0C24E94512}"/>
+    <hyperlink ref="C64" r:id="rId66" xr:uid="{D01516EE-9369-B94E-BE91-EA78F3F02003}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE85AC1-A8B4-154A-80E0-EDC55DDC1A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7FB64B-51AB-0642-AB53-E8182F42301E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="194">
   <si>
     <t>Publicação</t>
   </si>
@@ -612,6 +612,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1hZJIPvb_8PUldtAilKARNggfaYc_aiBH</t>
+  </si>
+  <si>
+    <t>2025-2</t>
+  </si>
+  <si>
+    <t>2025-2 PPGCR Edital N° 7.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QzieuxJS-G9edCNq1-kFTW44wM0WcPL0</t>
   </si>
 </sst>
 </file>
@@ -698,9 +707,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -738,7 +747,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -844,7 +853,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -986,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -994,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1742,6 +1751,17 @@
       </c>
       <c r="C67" s="5" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1816,6 +1836,7 @@
     <hyperlink ref="C61" r:id="rId64" xr:uid="{00CD0756-0AC4-B64E-9123-A817C282E043}"/>
     <hyperlink ref="C65" r:id="rId65" xr:uid="{B079AD41-BB5E-A54E-85AE-AA0C24E94512}"/>
     <hyperlink ref="C64" r:id="rId66" xr:uid="{D01516EE-9369-B94E-BE91-EA78F3F02003}"/>
+    <hyperlink ref="C68" r:id="rId67" xr:uid="{E2F86662-67CB-9A47-B6CA-6FDA507A908B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7FB64B-51AB-0642-AB53-E8182F42301E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E69D67-3726-9540-AA02-50B648933120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1060" yWindow="680" windowWidth="27640" windowHeight="16900" activeTab="2" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="196">
   <si>
     <t>Publicação</t>
   </si>
@@ -621,6 +621,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1QzieuxJS-G9edCNq1-kFTW44wM0WcPL0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ifsjm-c7wJQYIqPDsdobzRe8ZuVEP00n</t>
+  </si>
+  <si>
+    <t>2025-2 PPGCR Edital N°8 PDSE-CAPES</t>
   </si>
 </sst>
 </file>
@@ -707,9 +713,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -747,7 +753,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -853,7 +859,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -995,7 +1001,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1005,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
@@ -1935,9 +1941,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D9E84F-3BB0-FC4F-9BD9-A93DD3ABFC74}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1979,10 +1985,22 @@
         <v>178</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7CF251B5-21C4-7F48-9019-5D12FC85233E}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{C2B1BFF1-176B-A941-B8C2-5CE212613F7C}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{7D0C9088-5CBA-2941-87CE-69C887FE7CC4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Editais.xlsx
+++ b/docs/PPG/Editais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E69D67-3726-9540-AA02-50B648933120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60E1BFE-DBA8-C242-9CCA-C5B6601EFC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="680" windowWidth="27640" windowHeight="16900" activeTab="2" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="205">
   <si>
     <t>Publicação</t>
   </si>
@@ -627,6 +627,33 @@
   </si>
   <si>
     <t>2025-2 PPGCR Edital N°8 PDSE-CAPES</t>
+  </si>
+  <si>
+    <t>2026-1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14QpiNPNiAFJTO2TyU9hQRETFhdgo7NAV</t>
+  </si>
+  <si>
+    <t>2026-1 PPGCR Edital N° 1.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LbUnP0z4RiLouKcdjaeayrPE5rapJ3V-</t>
+  </si>
+  <si>
+    <t>2026-1 PPGCR Edital N° 2.pdf</t>
+  </si>
+  <si>
+    <t>2026-1 PPGCR Edital N° 3.pdf</t>
+  </si>
+  <si>
+    <t>2026-1 PPGCR Edital N° 4.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rRALikm_wgK7h72ZDRKLz2CdQrdAENJu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mc2CxHGC69cTTu0OhheL128mWT44LTNv</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1768,6 +1795,39 @@
       </c>
       <c r="C68" s="5" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1843,6 +1903,9 @@
     <hyperlink ref="C65" r:id="rId65" xr:uid="{B079AD41-BB5E-A54E-85AE-AA0C24E94512}"/>
     <hyperlink ref="C64" r:id="rId66" xr:uid="{D01516EE-9369-B94E-BE91-EA78F3F02003}"/>
     <hyperlink ref="C68" r:id="rId67" xr:uid="{E2F86662-67CB-9A47-B6CA-6FDA507A908B}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{58E0BEE0-CEAE-9E4F-8272-2FBDFDB4BDD7}"/>
+    <hyperlink ref="C70" r:id="rId69" xr:uid="{DC3BB191-A02F-DA46-BF70-86BF90F77374}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{1613F4D7-EBC8-0F44-8E5C-4ECB9A8FE0E7}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1941,7 +2004,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D9E84F-3BB0-FC4F-9BD9-A93DD3ABFC74}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1996,11 +2059,23 @@
         <v>194</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7CF251B5-21C4-7F48-9019-5D12FC85233E}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{C2B1BFF1-176B-A941-B8C2-5CE212613F7C}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{7D0C9088-5CBA-2941-87CE-69C887FE7CC4}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{CAD33B9A-86DF-5941-A7DD-DC562E9B4FB1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
